--- a/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019829_Event_11.xlsx
+++ b/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019829_Event_11.xlsx
@@ -7,10 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB hindlimb" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB ankle" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC hindlimb" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC ankle" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_forelimb" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_forelimb" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_wrist" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_wrist" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_hindlimb" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_hindlimb" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_ankle" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_ankle" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +432,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,13 +518,53 @@
           <t>stride_1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_min_hip_height_height</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>89.02299572287875</v>
+        <v>89.05530079838303</v>
+      </c>
+      <c r="C2" t="n">
+        <v>89.05530079838303</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-42.22583732969007</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32.72471662726733</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02936119713093757</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01663184593380966</v>
       </c>
     </row>
     <row r="3">
@@ -456,1289 +572,1034 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83.74224780796905</v>
-      </c>
+        <v>89.02299572287875</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>83.62439641718645</v>
-      </c>
+        <v>83.74224780796905</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>79.4224407733539</v>
-      </c>
+        <v>83.62439641718645</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79.35395947886538</v>
-      </c>
+        <v>79.4224407733539</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78.12510212575036</v>
-      </c>
+        <v>79.35395947886538</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78.05001979307079</v>
-      </c>
+        <v>78.12510212575036</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78.23939201409235</v>
-      </c>
+        <v>78.05001979307079</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78.25069956811497</v>
-      </c>
+        <v>78.23939201409235</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>79.56604520746409</v>
-      </c>
+        <v>78.25069956811497</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>79.51293347388277</v>
-      </c>
+        <v>79.56604520746409</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>81.18604195275537</v>
-      </c>
+        <v>79.51293347388277</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>81.14823989805522</v>
-      </c>
+        <v>81.18604195275537</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82.34237099948758</v>
-      </c>
+        <v>81.14823989805522</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82.16867149273772</v>
-      </c>
+        <v>82.34237099948758</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>84.1794006260765</v>
-      </c>
+        <v>82.16867149273772</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>84.23786509684885</v>
-      </c>
+        <v>84.1794006260765</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>86.3802390981615</v>
-      </c>
+        <v>84.23786509684885</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>86.63314337031402</v>
-      </c>
+        <v>86.3802390981615</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>88.71194696208805</v>
-      </c>
+        <v>86.63314337031402</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>88.80425417250017</v>
-      </c>
+        <v>88.71194696208805</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>88.00542730612169</v>
-      </c>
+        <v>88.80425417250017</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>87.94540506559376</v>
-      </c>
+        <v>88.00542730612169</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>83.47830910320306</v>
-      </c>
+        <v>87.94540506559376</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>83.43076131761319</v>
-      </c>
+        <v>83.47830910320306</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>77.87573393382915</v>
-      </c>
+        <v>83.43076131761319</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>77.5952348621578</v>
-      </c>
+        <v>77.87573393382915</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>71.1460638017131</v>
-      </c>
+        <v>77.5952348621578</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>71.05411093916756</v>
-      </c>
+        <v>71.1460638017131</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>64.81134730955188</v>
-      </c>
+        <v>71.05411093916756</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>64.68060511643336</v>
-      </c>
+        <v>64.81134730955188</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>58.65052252701324</v>
-      </c>
+        <v>64.68060511643336</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>58.29565718775343</v>
-      </c>
+        <v>58.65052252701324</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>51.7267315330026</v>
-      </c>
+        <v>58.29565718775343</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>51.57438564124295</v>
-      </c>
+        <v>51.7267315330026</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>43.6489668221443</v>
-      </c>
+        <v>51.57438564124295</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>43.61828117835412</v>
-      </c>
+        <v>43.6489668221443</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>36.6366274079526</v>
-      </c>
+        <v>43.61828117835412</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>36.63361328777222</v>
-      </c>
+        <v>36.6366274079526</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>28.81581996676245</v>
-      </c>
+        <v>36.63361328777222</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>28.7642055922049</v>
-      </c>
+        <v>28.81581996676245</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20.2278825323992</v>
-      </c>
+        <v>28.7642055922049</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20.18933850580858</v>
-      </c>
+        <v>20.2278825323992</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10.67780541023931</v>
-      </c>
+        <v>20.18933850580858</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10.59655447131106</v>
-      </c>
+        <v>10.67780541023931</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.143984268905285</v>
-      </c>
+        <v>10.59655447131106</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2.14896664437052</v>
-      </c>
+        <v>2.143984268905285</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-5.181244376734365</v>
-      </c>
+        <v>2.14896664437052</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-5.17219564463014</v>
-      </c>
+        <v>-5.181244376734365</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-11.68775068899588</v>
-      </c>
+        <v>-5.17219564463014</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-11.7632304540564</v>
-      </c>
+        <v>-11.68775068899588</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-18.92953622517815</v>
-      </c>
+        <v>-11.7632304540564</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-18.91046959606776</v>
-      </c>
+        <v>-18.92953622517815</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-24.2851267087677</v>
-      </c>
+        <v>-18.91046959606776</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-24.3012533226232</v>
-      </c>
+        <v>-24.2851267087677</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-28.36133005575448</v>
-      </c>
+        <v>-24.3012533226232</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-28.34698084127607</v>
-      </c>
+        <v>-28.36133005575448</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-32.4624773769267</v>
-      </c>
+        <v>-28.34698084127607</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-32.33711719141679</v>
-      </c>
+        <v>-32.4624773769267</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-35.22891581711493</v>
-      </c>
+        <v>-32.33711719141679</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-35.2288346133631</v>
-      </c>
+        <v>-35.22891581711493</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-38.67133472727306</v>
-      </c>
+        <v>-35.2288346133631</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-38.51355084491897</v>
-      </c>
+        <v>-38.67133472727306</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-41.40918010845031</v>
-      </c>
+        <v>-38.51355084491897</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-41.49941110367872</v>
-      </c>
+        <v>-41.40918010845031</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-44.15285686756078</v>
-      </c>
+        <v>-41.49941110367872</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-44.25522212851878</v>
-      </c>
+        <v>-44.15285686756078</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-45.32832076611276</v>
-      </c>
+        <v>-44.25522212851878</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-45.39512235483265</v>
-      </c>
+        <v>-45.32832076611276</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-44.98819094193132</v>
-      </c>
+        <v>-45.39512235483265</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-44.95098642818493</v>
-      </c>
+        <v>-44.98819094193132</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-45.72520418491158</v>
-      </c>
+        <v>-44.95098642818493</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-45.84425348062173</v>
-      </c>
+        <v>-45.72520418491158</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-45.00901082905188</v>
-      </c>
+        <v>-45.84425348062173</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-44.9526962982568</v>
-      </c>
+        <v>-45.00901082905188</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-43.39517724799347</v>
-      </c>
+        <v>-44.9526962982568</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-43.38323881685021</v>
-      </c>
+        <v>-43.39517724799347</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-42.35030733975712</v>
-      </c>
+        <v>-43.38323881685021</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>-42.35030733975712</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
         <v>-42.22583732969007</v>
       </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B80"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>stride_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-57.53914300785751</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-58.20969472651822</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-58.08111845320775</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-58.44402217295947</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-58.44802940969119</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-57.94211258523872</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-57.93085877174745</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-57.3227316576011</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-57.34765868646983</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-56.54449475227453</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-56.54588428111649</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-54.41629985653652</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-54.40353559554595</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-52.45262586694157</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-52.44707695770353</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-49.79580799483998</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-49.69530940796782</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-46.8614047596438</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-46.7502987445642</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-44.29442814293741</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-44.27819964061396</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-40.87989516192997</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-40.84392606090154</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-37.01401761387109</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-36.9945144462523</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-33.43434067556936</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>-33.30754934645246</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>-28.79722316409716</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>-28.71647547819647</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>-24.84996726203475</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-24.79538916699726</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>-20.74700254024685</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>-20.66787411289334</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-15.86281172870926</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-15.73033348046791</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-10.47293078158199</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-10.46566615148552</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-5.157701730741156</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-5.154702254694241</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.08970733810011886</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.1590193991549349</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>6.122023384468666</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>6.145908146104252</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>12.72342321006833</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>12.79807139166336</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>18.85994042900409</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>18.8712161858533</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>23.96297997958938</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>23.94854373848433</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>28.24353806802645</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>28.20438214354267</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>32.29274380567846</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>32.29897445185851</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>35.54611573373511</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>35.56757971848486</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>38.92009110131477</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>38.94546809868589</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>41.94122138241164</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>41.9449581827546</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>44.84503283053722</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>44.87651396115846</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>48.03406293942159</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>48.00513443717795</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>51.33399071339198</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>51.37950120857959</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>54.01752172537137</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>53.986321587715</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>54.48539501892188</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>54.46665686972722</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>54.36594392241893</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>54.35350082598523</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>54.10898854630747</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>54.14753900890191</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>53.67956723043019</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>53.71741011393342</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>52.78741682038886</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>52.7672453183645</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>51.75374770638138</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>51.74697570132332</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1764,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>89.02299572287875</v>
+        <v>89.05530079838303</v>
       </c>
     </row>
     <row r="3">
@@ -1772,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83.74224780796905</v>
+        <v>89.02299572287875</v>
       </c>
     </row>
     <row r="4">
@@ -1780,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>83.62439641718645</v>
+        <v>83.74224780796905</v>
       </c>
     </row>
     <row r="5">
@@ -1796,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>78.12510212575036</v>
+        <v>79.35395947886538</v>
       </c>
     </row>
     <row r="7">
@@ -1804,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78.05001979307079</v>
+        <v>78.12510212575036</v>
       </c>
     </row>
     <row r="8">
@@ -1812,7 +1673,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78.23939201409235</v>
+        <v>78.05001979307079</v>
       </c>
     </row>
     <row r="9">
@@ -1820,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78.25069956811497</v>
+        <v>78.23939201409235</v>
       </c>
     </row>
     <row r="10">
@@ -1828,7 +1689,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79.56604520746409</v>
+        <v>78.25069956811497</v>
       </c>
     </row>
     <row r="11">
@@ -1844,7 +1705,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>81.14823989805522</v>
+        <v>81.18604195275537</v>
       </c>
     </row>
     <row r="13">
@@ -1852,7 +1713,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>82.34237099948758</v>
+        <v>81.14823989805522</v>
       </c>
     </row>
     <row r="14">
@@ -1860,7 +1721,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>82.16867149273772</v>
+        <v>82.34237099948758</v>
       </c>
     </row>
     <row r="15">
@@ -1868,7 +1729,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>84.1794006260765</v>
+        <v>82.16867149273772</v>
       </c>
     </row>
     <row r="16">
@@ -1876,7 +1737,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>84.23786509684885</v>
+        <v>84.1794006260765</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1753,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>88.71194696208805</v>
+        <v>86.63314337031402</v>
       </c>
     </row>
     <row r="19">
@@ -1900,7 +1761,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>88.80425417250017</v>
+        <v>88.71194696208805</v>
       </c>
     </row>
     <row r="20">
@@ -1908,7 +1769,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>88.00542730612169</v>
+        <v>88.80425417250017</v>
       </c>
     </row>
     <row r="21">
@@ -1916,7 +1777,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>87.94540506559376</v>
+        <v>88.00542730612169</v>
       </c>
     </row>
     <row r="22">
@@ -1924,7 +1785,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>83.47830910320306</v>
+        <v>87.94540506559376</v>
       </c>
     </row>
     <row r="23">
@@ -1940,7 +1801,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>77.5952348621578</v>
+        <v>77.87573393382915</v>
       </c>
     </row>
     <row r="25">
@@ -1948,7 +1809,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>71.1460638017131</v>
+        <v>77.5952348621578</v>
       </c>
     </row>
     <row r="26">
@@ -1956,7 +1817,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>71.05411093916756</v>
+        <v>71.1460638017131</v>
       </c>
     </row>
     <row r="27">
@@ -1964,7 +1825,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>64.81134730955188</v>
+        <v>71.05411093916756</v>
       </c>
     </row>
     <row r="28">
@@ -1972,7 +1833,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>64.68060511643336</v>
+        <v>64.81134730955188</v>
       </c>
     </row>
     <row r="29">
@@ -1996,7 +1857,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>51.57438564124295</v>
+        <v>51.7267315330026</v>
       </c>
     </row>
     <row r="32">
@@ -2004,7 +1865,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>43.6489668221443</v>
+        <v>51.57438564124295</v>
       </c>
     </row>
     <row r="33">
@@ -2012,7 +1873,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>43.61828117835412</v>
+        <v>43.6489668221443</v>
       </c>
     </row>
     <row r="34">
@@ -2020,7 +1881,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>36.6366274079526</v>
+        <v>43.61828117835412</v>
       </c>
     </row>
     <row r="35">
@@ -2044,7 +1905,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20.2278825323992</v>
+        <v>28.7642055922049</v>
       </c>
     </row>
     <row r="38">
@@ -2052,7 +1913,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20.18933850580858</v>
+        <v>20.2278825323992</v>
       </c>
     </row>
     <row r="39">
@@ -2060,7 +1921,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10.67780541023931</v>
+        <v>20.18933850580858</v>
       </c>
     </row>
     <row r="40">
@@ -2068,7 +1929,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10.59655447131106</v>
+        <v>10.67780541023931</v>
       </c>
     </row>
     <row r="41">
@@ -2092,7 +1953,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-5.17219564463014</v>
+        <v>-5.181244376734365</v>
       </c>
     </row>
     <row r="44">
@@ -2100,7 +1961,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-11.68775068899588</v>
+        <v>-5.17219564463014</v>
       </c>
     </row>
     <row r="45">
@@ -2108,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-11.7632304540564</v>
+        <v>-11.68775068899588</v>
       </c>
     </row>
     <row r="46">
@@ -2116,7 +1977,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-18.92953622517815</v>
+        <v>-11.7632304540564</v>
       </c>
     </row>
     <row r="47">
@@ -2140,7 +2001,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-28.36133005575448</v>
+        <v>-24.3012533226232</v>
       </c>
     </row>
     <row r="50">
@@ -2148,7 +2009,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-28.34698084127607</v>
+        <v>-28.36133005575448</v>
       </c>
     </row>
     <row r="51">
@@ -2156,7 +2017,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-32.4624773769267</v>
+        <v>-28.34698084127607</v>
       </c>
     </row>
     <row r="52">
@@ -2164,7 +2025,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-32.33711719141679</v>
+        <v>-32.4624773769267</v>
       </c>
     </row>
     <row r="53">
@@ -2196,7 +2057,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-41.40918010845031</v>
+        <v>-38.51355084491897</v>
       </c>
     </row>
     <row r="57">
@@ -2204,7 +2065,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-41.49941110367872</v>
+        <v>-41.40918010845031</v>
       </c>
     </row>
     <row r="58">
@@ -2244,7 +2105,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-44.95098642818493</v>
+        <v>-44.98819094193132</v>
       </c>
     </row>
     <row r="63">
@@ -2252,7 +2113,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-45.72520418491158</v>
+        <v>-44.95098642818493</v>
       </c>
     </row>
     <row r="64">
@@ -2292,7 +2153,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-42.35030733975712</v>
+        <v>-43.38323881685021</v>
       </c>
     </row>
     <row r="69">
@@ -2300,7 +2161,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-42.22583732969007</v>
+        <v>-42.35030733975712</v>
       </c>
     </row>
     <row r="70">
@@ -2340,7 +2201,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-23.84105023984204</v>
+        <v>-23.89213890643723</v>
       </c>
     </row>
     <row r="75">
@@ -2348,7 +2209,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-30.29126361821898</v>
+        <v>-23.84105023984204</v>
       </c>
     </row>
     <row r="76">
@@ -2396,7 +2257,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>55.35727302921343</v>
+        <v>55.26116843939358</v>
       </c>
     </row>
     <row r="82">
@@ -2444,7 +2305,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>88.1520603869246</v>
+        <v>89.46504895634479</v>
       </c>
     </row>
     <row r="88">
@@ -2492,7 +2353,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>88.56730346166825</v>
+        <v>88.57238339221054</v>
       </c>
     </row>
     <row r="94">
@@ -2540,7 +2401,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>82.24376918985793</v>
+        <v>82.55988955128178</v>
       </c>
     </row>
     <row r="100">
@@ -2572,7 +2433,934 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-57.53821234760426</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-57.53821234760426</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.74697570132332</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-2.532497458297061</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-57.53914300785751</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-58.20969472651822</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-58.08111845320775</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-58.44402217295947</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-58.44802940969119</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-57.94211258523872</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-57.93085877174745</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-57.3227316576011</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-57.34765868646983</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-56.54449475227453</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-56.54588428111649</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-54.41629985653652</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-54.40353559554595</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-52.45262586694157</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-52.44707695770353</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-49.79580799483998</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-49.69530940796782</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-46.8614047596438</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-46.7502987445642</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-44.29442814293741</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-44.27819964061396</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-40.87989516192997</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-40.84392606090154</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-37.01401761387109</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-36.9945144462523</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-33.43434067556936</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-33.30754934645246</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-28.79722316409716</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-28.71647547819647</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-24.84996726203475</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-24.79538916699726</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-20.74700254024685</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-20.66787411289334</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-15.86281172870926</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-15.73033348046791</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-10.47293078158199</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-10.46566615148552</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-5.157701730741156</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-5.154702254694241</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.08970733810011886</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1590193991549349</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6.122023384468666</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6.145908146104252</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12.72342321006833</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12.79807139166336</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>18.85994042900409</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>18.8712161858533</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>23.96297997958938</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>23.94854373848433</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>28.24353806802645</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>28.20438214354267</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>32.29274380567846</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>32.29897445185851</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>35.54611573373511</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>35.56757971848486</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>38.92009110131477</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>38.94546809868589</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>41.94122138241164</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>41.9449581827546</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>44.84503283053722</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>44.87651396115846</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>48.03406293942159</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>48.00513443717795</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>51.33399071339198</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>51.37950120857959</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>54.01752172537137</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>53.986321587715</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>54.48539501892188</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>54.46665686972722</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>54.36594392241893</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>54.35350082598523</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>54.10898854630747</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>54.14753900890191</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>53.67956723043019</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>53.71741011393342</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>52.78741682038886</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>52.7672453183645</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>51.75374770638138</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>51.74697570132332</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2598,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-57.53914300785751</v>
+        <v>-57.53821234760426</v>
       </c>
     </row>
     <row r="3">
@@ -2606,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-58.20969472651822</v>
+        <v>-57.53914300785751</v>
       </c>
     </row>
     <row r="4">
@@ -2614,7 +3402,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-58.08111845320775</v>
+        <v>-58.20969472651822</v>
       </c>
     </row>
     <row r="5">
@@ -2630,7 +3418,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-57.94211258523872</v>
+        <v>-58.44802940969119</v>
       </c>
     </row>
     <row r="7">
@@ -2638,7 +3426,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-57.93085877174745</v>
+        <v>-57.94211258523872</v>
       </c>
     </row>
     <row r="8">
@@ -2646,7 +3434,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-57.3227316576011</v>
+        <v>-57.93085877174745</v>
       </c>
     </row>
     <row r="9">
@@ -2654,7 +3442,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-57.34765868646983</v>
+        <v>-57.3227316576011</v>
       </c>
     </row>
     <row r="10">
@@ -2662,7 +3450,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-56.54449475227453</v>
+        <v>-57.34765868646983</v>
       </c>
     </row>
     <row r="11">
@@ -2678,7 +3466,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-54.40353559554595</v>
+        <v>-54.41629985653652</v>
       </c>
     </row>
     <row r="13">
@@ -2686,7 +3474,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-52.45262586694157</v>
+        <v>-54.40353559554595</v>
       </c>
     </row>
     <row r="14">
@@ -2694,7 +3482,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-52.44707695770353</v>
+        <v>-52.45262586694157</v>
       </c>
     </row>
     <row r="15">
@@ -2702,7 +3490,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-49.79580799483998</v>
+        <v>-52.44707695770353</v>
       </c>
     </row>
     <row r="16">
@@ -2710,7 +3498,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-49.69530940796782</v>
+        <v>-49.79580799483998</v>
       </c>
     </row>
     <row r="17">
@@ -2726,7 +3514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-44.29442814293741</v>
+        <v>-46.7502987445642</v>
       </c>
     </row>
     <row r="19">
@@ -2734,7 +3522,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-44.27819964061396</v>
+        <v>-44.29442814293741</v>
       </c>
     </row>
     <row r="20">
@@ -2742,7 +3530,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-40.87989516192997</v>
+        <v>-44.27819964061396</v>
       </c>
     </row>
     <row r="21">
@@ -2750,7 +3538,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-40.84392606090154</v>
+        <v>-40.87989516192997</v>
       </c>
     </row>
     <row r="22">
@@ -2758,7 +3546,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-37.01401761387109</v>
+        <v>-40.84392606090154</v>
       </c>
     </row>
     <row r="23">
@@ -2774,7 +3562,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-33.30754934645246</v>
+        <v>-33.43434067556936</v>
       </c>
     </row>
     <row r="25">
@@ -2782,7 +3570,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-28.79722316409716</v>
+        <v>-33.30754934645246</v>
       </c>
     </row>
     <row r="26">
@@ -2790,7 +3578,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-28.71647547819647</v>
+        <v>-28.79722316409716</v>
       </c>
     </row>
     <row r="27">
@@ -2798,7 +3586,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-24.84996726203475</v>
+        <v>-28.71647547819647</v>
       </c>
     </row>
     <row r="28">
@@ -2806,7 +3594,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-24.79538916699726</v>
+        <v>-24.84996726203475</v>
       </c>
     </row>
     <row r="29">
@@ -2830,7 +3618,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-15.73033348046791</v>
+        <v>-15.86281172870926</v>
       </c>
     </row>
     <row r="32">
@@ -2838,7 +3626,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-10.47293078158199</v>
+        <v>-15.73033348046791</v>
       </c>
     </row>
     <row r="33">
@@ -2846,7 +3634,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-10.46566615148552</v>
+        <v>-10.47293078158199</v>
       </c>
     </row>
     <row r="34">
@@ -2854,7 +3642,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.157701730741156</v>
+        <v>-10.46566615148552</v>
       </c>
     </row>
     <row r="35">
@@ -2878,7 +3666,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.122023384468666</v>
+        <v>0.1590193991549349</v>
       </c>
     </row>
     <row r="38">
@@ -2886,7 +3674,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.145908146104252</v>
+        <v>6.122023384468666</v>
       </c>
     </row>
     <row r="39">
@@ -2894,7 +3682,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.72342321006833</v>
+        <v>6.145908146104252</v>
       </c>
     </row>
     <row r="40">
@@ -2902,7 +3690,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.79807139166336</v>
+        <v>12.72342321006833</v>
       </c>
     </row>
     <row r="41">
@@ -2926,7 +3714,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23.94854373848433</v>
+        <v>23.96297997958938</v>
       </c>
     </row>
     <row r="44">
@@ -2934,7 +3722,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>28.24353806802645</v>
+        <v>23.94854373848433</v>
       </c>
     </row>
     <row r="45">
@@ -2942,7 +3730,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>28.20438214354267</v>
+        <v>28.24353806802645</v>
       </c>
     </row>
     <row r="46">
@@ -2950,7 +3738,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>32.29274380567846</v>
+        <v>28.20438214354267</v>
       </c>
     </row>
     <row r="47">
@@ -2974,7 +3762,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>38.92009110131477</v>
+        <v>35.56757971848486</v>
       </c>
     </row>
     <row r="50">
@@ -2982,7 +3770,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>38.94546809868589</v>
+        <v>38.92009110131477</v>
       </c>
     </row>
     <row r="51">
@@ -2990,7 +3778,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>41.94122138241164</v>
+        <v>38.94546809868589</v>
       </c>
     </row>
     <row r="52">
@@ -2998,7 +3786,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>41.9449581827546</v>
+        <v>41.94122138241164</v>
       </c>
     </row>
     <row r="53">
@@ -3030,7 +3818,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>51.33399071339198</v>
+        <v>48.00513443717795</v>
       </c>
     </row>
     <row r="57">
@@ -3038,7 +3826,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>51.37950120857959</v>
+        <v>51.33399071339198</v>
       </c>
     </row>
     <row r="58">
@@ -3078,7 +3866,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>54.35350082598523</v>
+        <v>54.36594392241893</v>
       </c>
     </row>
     <row r="63">
@@ -3086,7 +3874,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>54.10898854630747</v>
+        <v>54.35350082598523</v>
       </c>
     </row>
     <row r="64">
@@ -3126,7 +3914,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>51.75374770638138</v>
+        <v>52.7672453183645</v>
       </c>
     </row>
     <row r="69">
@@ -3134,7 +3922,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>51.74697570132332</v>
+        <v>51.75374770638138</v>
       </c>
     </row>
     <row r="70">
@@ -3174,7 +3962,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>42.22380777798128</v>
+        <v>42.21192743643059</v>
       </c>
     </row>
     <row r="75">
@@ -3182,7 +3970,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>38.3146556063051</v>
+        <v>42.22380777798128</v>
       </c>
     </row>
     <row r="76">
@@ -3230,7 +4018,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.023076505651796</v>
+        <v>9.154246859575206</v>
       </c>
     </row>
     <row r="82">
@@ -3278,7 +4066,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-51.9428048229957</v>
+        <v>-41.96597879428885</v>
       </c>
     </row>
     <row r="88">
@@ -3326,7 +4114,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-62.21496520228147</v>
+        <v>-62.23635766762678</v>
       </c>
     </row>
     <row r="94">
@@ -3374,7 +4162,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-59.57831148925284</v>
+        <v>-59.42140632701899</v>
       </c>
     </row>
     <row r="100">
